--- a/data/trans_bre/P1404-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.297715373311192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.296467716086095</v>
+        <v>2.296467716086098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2939503755382568</v>
@@ -649,7 +649,7 @@
         <v>0.09531847797092027</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1467724316648214</v>
+        <v>0.1467724316648216</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2903676451289423</v>
+        <v>-0.124132350084606</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.246668477235295</v>
+        <v>1.134400475293322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.590690636260928</v>
+        <v>-1.590357025271416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.858738856408793</v>
+        <v>-1.653586743331285</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.018268880733807</v>
+        <v>-0.01473096374643637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08794475800982492</v>
+        <v>0.08670636146999734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1065072662006579</v>
+        <v>-0.1033878496617149</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1011202015271595</v>
+        <v>-0.09236464161467425</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.976237706752938</v>
+        <v>7.121482602328499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.506552054206657</v>
+        <v>7.279887866968767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.11605278334695</v>
+        <v>4.176653455617576</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.138720136986458</v>
+        <v>6.017886458877637</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7104771367026435</v>
+        <v>0.7124508579525244</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7255075763505805</v>
+        <v>0.6886440767739066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3348363852928492</v>
+        <v>0.349659611215868</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4569849162850524</v>
+        <v>0.4637609598284672</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.1614819981618674</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2220925818949222</v>
+        <v>0.2220925818949223</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.079621073427237</v>
+        <v>-1.083992629364019</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.090934109905914</v>
+        <v>-0.8838278282847577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.215151005350141</v>
+        <v>-1.222255326410673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2515374834687777</v>
+        <v>0.3520209206144493</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1178424061322186</v>
+        <v>-0.1239847720309897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09405355691974265</v>
+        <v>-0.07339986726760868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.105632894141068</v>
+        <v>-0.1111118614602582</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01671184471139996</v>
+        <v>0.01548688614129346</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.576564456270984</v>
+        <v>3.598913675806116</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.692939375340551</v>
+        <v>4.592633608658542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.597883470409052</v>
+        <v>4.571670172040722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.817664285001872</v>
+        <v>5.973263058903985</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5427664654398903</v>
+        <v>0.521609708756809</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5617276455246779</v>
+        <v>0.5283588958976689</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4931059535056285</v>
+        <v>0.5104985155895365</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4791994364297888</v>
+        <v>0.4708771509114283</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.448780938991068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2981364224285937</v>
+        <v>0.298136422428591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3299788333554903</v>
@@ -849,7 +849,7 @@
         <v>0.1400154270364643</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02163876165220679</v>
+        <v>0.02163876165220658</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.124474006567471</v>
+        <v>0.01227007512870265</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.127950163882538</v>
+        <v>-1.982661246508341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.643099195038017</v>
+        <v>-1.863888253937928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.251077061957614</v>
+        <v>-2.453854186756538</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01186421168917436</v>
+        <v>0.006548560642627477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1528684649488428</v>
+        <v>-0.1391440404040761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1378791665915215</v>
+        <v>-0.1569704429606985</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1515744609184479</v>
+        <v>-0.1571455447408554</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.408056058986225</v>
+        <v>4.487659239028456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.46013426942545</v>
+        <v>4.712038603325312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.901950701105671</v>
+        <v>4.629669120524614</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.974183540094992</v>
+        <v>2.819225558389735</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8302811043080498</v>
+        <v>0.8564134625143675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3973078198424145</v>
+        <v>0.4194652020069241</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5665756777712138</v>
+        <v>0.5133287956585765</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2450947498405396</v>
+        <v>0.2269074959591311</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.426546631050578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.118510568046177</v>
+        <v>1.11851056804618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01739093268709667</v>
@@ -949,7 +949,7 @@
         <v>0.3601859776263133</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0728952429178816</v>
+        <v>0.0728952429178818</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.104120222687065</v>
+        <v>-3.498753492359202</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.810461333446286</v>
+        <v>-2.773004937101437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9897707890895711</v>
+        <v>-0.5481991075998722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.826838609957294</v>
+        <v>-1.925190335900404</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4233171388172846</v>
+        <v>-0.4785693321310823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2475322368860935</v>
+        <v>-0.2441478033587128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09349733658811533</v>
+        <v>-0.05812699091886941</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1055326629940252</v>
+        <v>-0.1072801939408891</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.888126668588116</v>
+        <v>3.401093201443725</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.193699805148491</v>
+        <v>5.428502488310783</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.777563064850692</v>
+        <v>7.636116662038088</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.236035317359302</v>
+        <v>4.103914224981703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8645332250547861</v>
+        <v>0.7177316678076281</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.682262892442727</v>
+        <v>0.7184726324930041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9885239060301549</v>
+        <v>1.038075311022131</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3121785836620833</v>
+        <v>0.2928870848010554</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.828138888286143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.67194206711557</v>
+        <v>1.671942067115575</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3273457027517422</v>
@@ -1049,7 +1049,7 @@
         <v>0.1607257887424638</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1152953675517328</v>
+        <v>0.1152953675517332</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.220375962972364</v>
+        <v>1.125975643851142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7145271433667474</v>
+        <v>0.7922451608250548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2097628988424124</v>
+        <v>0.2147927848397612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1675050223548622</v>
+        <v>0.3418422335414823</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1393218219720904</v>
+        <v>0.132051033893128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06867324535929416</v>
+        <v>0.06160563141419414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01666381927095103</v>
+        <v>0.01745932482085084</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01260766001824778</v>
+        <v>0.02234271336223668</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.893255743522115</v>
+        <v>3.99661125039274</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.072108850213387</v>
+        <v>4.083435391937972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.442920044091931</v>
+        <v>3.494530931793897</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.038452964119059</v>
+        <v>3.098831065834139</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5396275542060364</v>
+        <v>0.5654537336056451</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3921060451088065</v>
+        <v>0.3869664376996718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3301965666875959</v>
+        <v>0.3286349961506029</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2235124167585898</v>
+        <v>0.2240637354419877</v>
       </c>
     </row>
     <row r="19">
